--- a/Baldriod terv.xlsx
+++ b/Baldriod terv.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Baldriod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF14FD03-9FC1-4169-A4FD-CA3ED60712D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB026A9-1E39-443B-963B-B971B31E724C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Menu" sheetId="2" r:id="rId1"/>
     <sheet name="New Game" sheetId="3" r:id="rId2"/>
-    <sheet name="Play" sheetId="1" r:id="rId3"/>
-    <sheet name="Data" sheetId="4" r:id="rId4"/>
+    <sheet name="Play (fight)" sheetId="1" r:id="rId3"/>
+    <sheet name="Play (shop)" sheetId="5" r:id="rId4"/>
+    <sheet name="Data" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -28,23 +29,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="81">
   <si>
     <t>Player name</t>
   </si>
   <si>
-    <t>Current attack</t>
-  </si>
-  <si>
-    <t>Current defense</t>
-  </si>
-  <si>
     <t>HP</t>
   </si>
   <si>
-    <t>Current HP</t>
-  </si>
-  <si>
     <t>Defense</t>
   </si>
   <si>
@@ -57,18 +49,12 @@
     <t>Armors</t>
   </si>
   <si>
-    <t>Shield</t>
-  </si>
-  <si>
     <t>Coins</t>
   </si>
   <si>
     <t>Food</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>Map</t>
   </si>
   <si>
@@ -78,109 +64,214 @@
     <t>Load game</t>
   </si>
   <si>
+    <t>Difficulty:</t>
+  </si>
+  <si>
+    <t>Easy/medium/hard</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Enemy name</t>
+  </si>
+  <si>
+    <t>Dagger</t>
+  </si>
+  <si>
+    <t>Sword</t>
+  </si>
+  <si>
+    <t>Axe</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Spear</t>
+  </si>
+  <si>
+    <t>Halberd</t>
+  </si>
+  <si>
+    <t>Leather Armor</t>
+  </si>
+  <si>
+    <t>Chain Armor</t>
+  </si>
+  <si>
+    <t>Plate Armor</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>4-12</t>
+  </si>
+  <si>
+    <t>3-18</t>
+  </si>
+  <si>
+    <t>Cast a spell</t>
+  </si>
+  <si>
+    <t>Damage Reduction</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Durability</t>
+  </si>
+  <si>
+    <t>Location image</t>
+  </si>
+  <si>
+    <t>Shields</t>
+  </si>
+  <si>
+    <t>Melee/ranged mode</t>
+  </si>
+  <si>
+    <t>Attack with weapon</t>
+  </si>
+  <si>
+    <t>Mode: melee/ranged</t>
+  </si>
+  <si>
+    <t>Random/set</t>
+  </si>
+  <si>
+    <t>Random/choose</t>
+  </si>
+  <si>
+    <t>Spells</t>
+  </si>
+  <si>
+    <t>Starting</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Save game</t>
+  </si>
+  <si>
     <t>Settings</t>
   </si>
   <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>drop-down list</t>
+  </si>
+  <si>
     <t>Generate attributes</t>
   </si>
   <si>
-    <t>Difficulty:</t>
-  </si>
-  <si>
-    <t>Easy/medium/hard</t>
-  </si>
-  <si>
-    <t>Magic</t>
-  </si>
-  <si>
-    <t>Enemy name</t>
-  </si>
-  <si>
-    <t>Current Magic</t>
-  </si>
-  <si>
-    <t>Dagger</t>
-  </si>
-  <si>
-    <t>Sword</t>
-  </si>
-  <si>
-    <t>Axe</t>
-  </si>
-  <si>
-    <t>Damage</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Spear</t>
-  </si>
-  <si>
-    <t>Halberd</t>
-  </si>
-  <si>
-    <t>Leather Armor</t>
-  </si>
-  <si>
-    <t>Chain Armor</t>
-  </si>
-  <si>
-    <t>Plate Armor</t>
-  </si>
-  <si>
-    <t>6-9</t>
-  </si>
-  <si>
-    <t>11-15</t>
-  </si>
-  <si>
-    <t>12-18</t>
-  </si>
-  <si>
-    <t>6-15</t>
-  </si>
-  <si>
-    <t>1-6</t>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>4-12</t>
-  </si>
-  <si>
-    <t>3-18</t>
-  </si>
-  <si>
-    <t>Attack w Weapon</t>
-  </si>
-  <si>
-    <t>Cast a spell</t>
-  </si>
-  <si>
-    <t>Use item</t>
-  </si>
-  <si>
-    <t>Damage Reduction</t>
-  </si>
-  <si>
-    <t>lenyíló listák</t>
-  </si>
-  <si>
-    <t>Inventory</t>
-  </si>
-  <si>
-    <t>Durability</t>
-  </si>
-  <si>
-    <t>Back to main menu</t>
-  </si>
-  <si>
-    <t>Save game</t>
+    <t>Attack (6-9)</t>
+  </si>
+  <si>
+    <t>Defense (11-15)</t>
+  </si>
+  <si>
+    <t>HP (12-18)</t>
+  </si>
+  <si>
+    <t>Magic (6-15)</t>
+  </si>
+  <si>
+    <t>Start game</t>
+  </si>
+  <si>
+    <t>Back to home page</t>
+  </si>
+  <si>
+    <t>writable text</t>
+  </si>
+  <si>
+    <t>Item 1</t>
+  </si>
+  <si>
+    <t>Item 2</t>
+  </si>
+  <si>
+    <t>Item 3</t>
+  </si>
+  <si>
+    <t>Item 4</t>
+  </si>
+  <si>
+    <t>Item 5</t>
+  </si>
+  <si>
+    <t>Use item/change choosen</t>
+  </si>
+  <si>
+    <t>New turn</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Starting location:</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Small shield</t>
+  </si>
+  <si>
+    <t>Medium shield</t>
+  </si>
+  <si>
+    <t>Large shield</t>
+  </si>
+  <si>
+    <t>Two-handed penalty</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Magic items</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Buy item</t>
   </si>
 </sst>
 </file>
@@ -204,15 +295,33 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -455,17 +564,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -497,16 +629,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -515,28 +686,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -549,10 +726,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,7 +797,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -666,7 +849,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -868,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E4:F8"/>
+  <dimension ref="E4:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,29 +1062,27 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E4" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="22"/>
-    </row>
-    <row r="6" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E6" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="8" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E8" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="22"/>
+    <row r="4" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E4" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="N4" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="31"/>
+    </row>
+    <row r="6" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E6" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -910,359 +1091,488 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C6:F12"/>
+  <dimension ref="C5:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="24" t="s">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M5" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="32"/>
+    </row>
+    <row r="6" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="40"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M7" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="31"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M9" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="33"/>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C10" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="33">
+        <v>10</v>
+      </c>
+      <c r="D11" s="33"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="44"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="13">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="C10:F10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="C12:F12"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:L19"/>
+  <dimension ref="B1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="E1" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="23"/>
-      <c r="H1" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="28"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G3" s="41" t="s">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C1" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="34"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="G3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="32"/>
+      <c r="J3" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="49"/>
+      <c r="L3" s="50"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="32"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="53"/>
+      <c r="N4" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="32"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="47"/>
+      <c r="D5" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="32"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="41"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="G4" s="23" t="s">
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="42"/>
+      <c r="J7" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G8" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="J4" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="34"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="27" t="s">
+      <c r="H8" s="42"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+    </row>
+    <row r="10" spans="2:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+    </row>
+    <row r="11" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="G11" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="G13" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="G14" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G15" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="39"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="G5" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="23"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="37"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="28"/>
-      <c r="G6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="23"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="40"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="28"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="28"/>
-      <c r="G8" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="J8" s="22" t="s">
+      <c r="E17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G9" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="26"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="30"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="26"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="26"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="26"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="26"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
+      <c r="G17" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="44"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
+  <mergeCells count="33">
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="J7:L18"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="J4:L6"/>
-    <mergeCell ref="J8:L19"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="J3:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1270,210 +1580,621 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4043F73-CE53-41EA-8A33-4341E0C123CB}">
+  <dimension ref="B1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C1" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="34"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="G3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="32"/>
+      <c r="J3" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="49"/>
+      <c r="L3" s="50"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="32"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="53"/>
+      <c r="N4" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="32"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="47"/>
+      <c r="D5" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="32"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="42"/>
+      <c r="J7" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G8" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="42"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+    </row>
+    <row r="10" spans="2:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+    </row>
+    <row r="11" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+    </row>
+    <row r="12" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="44"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:L18"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="11.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13"/>
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12"/>
+      <c r="B1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14">
+        <v>2</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="14">
+        <v>4</v>
+      </c>
+      <c r="F2" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7">
+        <v>16</v>
+      </c>
+      <c r="F5" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="14">
+      <c r="F8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="19">
         <v>1</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D9" s="18">
+        <v>3</v>
+      </c>
+      <c r="F9" s="18">
         <v>1</v>
       </c>
-      <c r="E2" s="15">
+      <c r="G9" s="18">
+        <v>2</v>
+      </c>
+      <c r="H9" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
         <v>4</v>
       </c>
-      <c r="F2" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="9">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8">
-        <v>6</v>
-      </c>
-      <c r="D5" s="8">
-        <v>4</v>
-      </c>
-      <c r="E5" s="8">
-        <v>16</v>
-      </c>
-      <c r="F5" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="20">
-        <v>1</v>
-      </c>
-      <c r="C9" s="19">
-        <v>2</v>
-      </c>
-      <c r="D9" s="19">
-        <v>3</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="6">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2">
+        <v>60</v>
+      </c>
+      <c r="F11" s="2">
+        <v>8</v>
+      </c>
+      <c r="G11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="2">
-        <v>17</v>
-      </c>
-      <c r="D11" s="2">
-        <v>30</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="H11" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Baldriod terv.xlsx
+++ b/Baldriod terv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Baldriod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB026A9-1E39-443B-963B-B971B31E724C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310668AB-743C-4640-8C5C-BF7C27412C7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Menu" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Play (fight)" sheetId="1" r:id="rId3"/>
     <sheet name="Play (shop)" sheetId="5" r:id="rId4"/>
     <sheet name="Data" sheetId="4" r:id="rId5"/>
+    <sheet name="Database" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="143">
   <si>
     <t>Player name</t>
   </si>
@@ -272,6 +273,192 @@
   </si>
   <si>
     <t>Buy item</t>
+  </si>
+  <si>
+    <t>Enemy</t>
+  </si>
+  <si>
+    <t>Enemy attack</t>
+  </si>
+  <si>
+    <t>Enemy defense</t>
+  </si>
+  <si>
+    <t>Enemy hp</t>
+  </si>
+  <si>
+    <t>Enemy min damage</t>
+  </si>
+  <si>
+    <t>Enemy max damage</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Location name</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>Weapon name</t>
+  </si>
+  <si>
+    <t>Weapon attack</t>
+  </si>
+  <si>
+    <t>Weapon defense</t>
+  </si>
+  <si>
+    <t>Weapon min damage</t>
+  </si>
+  <si>
+    <t>Weapon max damage</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Armor name</t>
+  </si>
+  <si>
+    <t>Armor defense</t>
+  </si>
+  <si>
+    <t>Armor durability</t>
+  </si>
+  <si>
+    <t>Armor cost</t>
+  </si>
+  <si>
+    <t>Armor damage reduction</t>
+  </si>
+  <si>
+    <t>Weapon cost</t>
+  </si>
+  <si>
+    <t>Weapon durability</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Item name</t>
+  </si>
+  <si>
+    <t>Stackable</t>
+  </si>
+  <si>
+    <t>Stack size</t>
+  </si>
+  <si>
+    <t>Spell</t>
+  </si>
+  <si>
+    <t>Spell name</t>
+  </si>
+  <si>
+    <t>Spell type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Enemy armor</t>
+  </si>
+  <si>
+    <t>Enemy magic</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>Spell attack</t>
+  </si>
+  <si>
+    <t>Spell defense</t>
+  </si>
+  <si>
+    <t>Spell hp</t>
+  </si>
+  <si>
+    <t>Spell cost</t>
+  </si>
+  <si>
+    <t>Two handed penalty</t>
+  </si>
+  <si>
+    <t>Two handed</t>
+  </si>
+  <si>
+    <t>primary key: *</t>
+  </si>
+  <si>
+    <t>Id *</t>
+  </si>
+  <si>
+    <t>Spell id "</t>
+  </si>
+  <si>
+    <t>Spell length</t>
+  </si>
+  <si>
+    <t>Attack, defense, hp, damage, armor, magic</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>EnemyId "</t>
+  </si>
+  <si>
+    <t>LocationId "</t>
+  </si>
+  <si>
+    <t>Enemy location</t>
+  </si>
+  <si>
+    <t>Item cost</t>
+  </si>
+  <si>
+    <t>secondary key: "</t>
   </si>
 </sst>
 </file>
@@ -321,7 +508,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -590,18 +777,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -640,10 +894,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,6 +920,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -680,18 +959,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -737,6 +1004,25 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1054,7 +1340,7 @@
   <dimension ref="E4:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,20 +1349,20 @@
   </cols>
   <sheetData>
     <row r="4" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="N4" s="30" t="s">
+      <c r="F4" s="39"/>
+      <c r="N4" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="31"/>
+      <c r="O4" s="41"/>
     </row>
     <row r="6" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="29"/>
+      <c r="F6" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1093,7 +1379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C5:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
@@ -1107,71 +1393,71 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="32"/>
+      <c r="N5" s="46"/>
     </row>
     <row r="6" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40" t="s">
+      <c r="D6" s="53"/>
+      <c r="E6" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="40"/>
+      <c r="F6" s="54"/>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="M7" s="30" t="s">
+      <c r="M7" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="31"/>
+      <c r="N7" s="41"/>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="M9" s="33" t="s">
+      <c r="M9" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="33"/>
+      <c r="N9" s="47"/>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="33">
+      <c r="C11" s="47">
         <v>10</v>
       </c>
-      <c r="D11" s="33"/>
+      <c r="D11" s="47"/>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="23" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1179,10 +1465,10 @@
       <c r="C14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="23" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1190,10 +1476,10 @@
       <c r="C15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="23" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1201,39 +1487,39 @@
       <c r="C16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="23" t="s">
         <v>64</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43" t="s">
+      <c r="D18" s="43"/>
+      <c r="E18" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="44"/>
+      <c r="F18" s="45"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="30" t="s">
+      <c r="D20" s="41"/>
+      <c r="E20" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="31"/>
+      <c r="F20" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1260,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,254 +1561,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34" t="s">
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34" t="s">
+      <c r="J1" s="48"/>
+      <c r="K1" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="34"/>
+      <c r="L1" s="48"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="G3" s="32" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="G3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="J3" s="48" t="s">
+      <c r="H3" s="46"/>
+      <c r="J3" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="50"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="60"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="53"/>
-      <c r="N4" s="32" t="s">
+      <c r="H4" s="46"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="63"/>
+      <c r="N4" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="32"/>
+      <c r="O4" s="46"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="22" t="s">
+      <c r="C5" s="57"/>
+      <c r="D5" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="56"/>
+      <c r="H5" s="46"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="66"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="57"/>
+      <c r="D6" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="31"/>
+      <c r="O6" s="41"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="22" t="s">
+      <c r="C7" s="57"/>
+      <c r="D7" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="J7" s="45" t="s">
+      <c r="H7" s="43"/>
+      <c r="J7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="42"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
+      <c r="H8" s="43"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
+      <c r="D9" s="41"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
     </row>
     <row r="10" spans="2:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
+      <c r="H10" s="53"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
     </row>
     <row r="11" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="G11" s="38" t="s">
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="G11" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="39"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
+      <c r="H11" s="53"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="39"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
+      <c r="H12" s="53"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="G13" s="38" t="s">
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="G13" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="39"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
+      <c r="H13" s="53"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="G14" s="38" t="s">
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="G14" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
+      <c r="H14" s="53"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
+      <c r="H15" s="53"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="39"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="53"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="43" t="s">
+      <c r="B17" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="53"/>
+      <c r="G17" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
@@ -1531,15 +1811,16 @@
       <c r="E18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="34">
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B11:E11"/>
@@ -1580,11 +1861,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4043F73-CE53-41EA-8A33-4341E0C123CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,310 +1879,310 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34" t="s">
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34" t="s">
+      <c r="J1" s="48"/>
+      <c r="K1" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="34"/>
+      <c r="L1" s="48"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="G3" s="32" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="G3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="J3" s="48" t="s">
+      <c r="H3" s="46"/>
+      <c r="J3" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="50"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="60"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="53"/>
-      <c r="N4" s="32" t="s">
+      <c r="H4" s="46"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="63"/>
+      <c r="N4" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="32"/>
+      <c r="O4" s="46"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="22" t="s">
+      <c r="C5" s="57"/>
+      <c r="D5" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="56"/>
+      <c r="H5" s="46"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="66"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="57"/>
+      <c r="D6" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="31"/>
+      <c r="O6" s="41"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="22" t="s">
+      <c r="C7" s="57"/>
+      <c r="D7" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="J7" s="45" t="s">
+      <c r="H7" s="43"/>
+      <c r="J7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="42"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
+      <c r="H8" s="43"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
     </row>
     <row r="10" spans="2:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
+      <c r="H10" s="53"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
     </row>
     <row r="11" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="39"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
+      <c r="H11" s="53"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
     </row>
     <row r="12" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="39"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
+      <c r="H12" s="53"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="39"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
+      <c r="H13" s="53"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
+      <c r="H14" s="53"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
+      <c r="H15" s="53"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="26" t="s">
         <v>80</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
@@ -1941,11 +2222,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,241 +2244,893 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12"/>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>1</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="13">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="13">
+        <v>4</v>
+      </c>
+      <c r="F2" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="72"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="73"/>
+      <c r="B11" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="18">
+        <v>1</v>
+      </c>
+      <c r="C12" s="17">
+        <v>2</v>
+      </c>
+      <c r="D12" s="17">
+        <v>3</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1</v>
+      </c>
+      <c r="G12" s="17">
+        <v>2</v>
+      </c>
+      <c r="H12" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="2">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2">
+        <v>10</v>
+      </c>
+      <c r="H14" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="5">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2">
+        <v>60</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="14">
-        <v>4</v>
-      </c>
-      <c r="F2" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="8">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7">
-        <v>4</v>
-      </c>
-      <c r="E5" s="7">
-        <v>16</v>
-      </c>
-      <c r="F5" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="19">
-        <v>1</v>
-      </c>
-      <c r="C9" s="18">
-        <v>2</v>
-      </c>
-      <c r="D9" s="18">
-        <v>3</v>
-      </c>
-      <c r="F9" s="18">
-        <v>1</v>
-      </c>
-      <c r="G9" s="18">
-        <v>2</v>
-      </c>
-      <c r="H9" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="6">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2">
-        <v>45</v>
-      </c>
-      <c r="D11" s="2">
-        <v>60</v>
-      </c>
-      <c r="F11" s="2">
-        <v>8</v>
-      </c>
-      <c r="G11" s="2">
-        <v>10</v>
-      </c>
-      <c r="H11" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="B1:S30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" customWidth="1"/>
+    <col min="15" max="16" width="11.28515625" customWidth="1"/>
+    <col min="18" max="18" width="24.28515625" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="71"/>
+      <c r="N2" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="71"/>
+      <c r="P2" s="31"/>
+      <c r="R2" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="S2" s="71"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="77"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="P3" s="32"/>
+      <c r="R3" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="S3" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="H4" s="76"/>
+      <c r="J4" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="P4" s="32"/>
+      <c r="R4" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="S4" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="H5" s="76"/>
+      <c r="N5" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="P5" s="32"/>
+      <c r="R5" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="S5" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="I6" s="37"/>
+      <c r="N6" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="P6" s="32"/>
+      <c r="R6" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="S6" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="29"/>
+      <c r="N7" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="P7" s="32"/>
+      <c r="R7" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="S7" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="29"/>
+      <c r="N8" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="P8" s="32"/>
+      <c r="R8" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="S8" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="29"/>
+      <c r="N9" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="P9" s="32"/>
+      <c r="R9" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="S9" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="29"/>
+      <c r="N10" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="29"/>
+      <c r="N11" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="29"/>
+    </row>
+    <row r="13" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="76"/>
+      <c r="H13" s="76"/>
+    </row>
+    <row r="14" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="76"/>
+      <c r="F14" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="71"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="29"/>
+      <c r="N14" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="O14" s="71"/>
+      <c r="P14" s="31"/>
+      <c r="R14" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="S14" s="71"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D15" s="76"/>
+      <c r="F15" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="76"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="N15" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="S15" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E16" s="78"/>
+      <c r="F16" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="81"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="N16" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="O16" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="35"/>
+      <c r="R16" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="S16" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="79"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="N17" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="O17" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" s="35"/>
+      <c r="R17" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="S17" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="N18" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="O18" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="S18" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="N19" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="S19" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="N20" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="O20" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="R20" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="S20" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="R21" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="S21" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="R22" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="S22" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="F14:G14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>